--- a/paper/journal_source_data/SourceData_Fig2.xlsx
+++ b/paper/journal_source_data/SourceData_Fig2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kfurudate/dev/LLM-PathwayCurator/paper/journal_source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200A5CA-08AA-B640-85F9-6C1574580720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56710C3-3AC6-7843-B4D2-C4644EA86906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2100" windowWidth="25780" windowHeight="12840" activeTab="1" xr2:uid="{30EB6BB9-ED82-374A-B580-C38CF118DFA7}"/>
+    <workbookView xWindow="5340" yWindow="11460" windowWidth="17220" windowHeight="12840" xr2:uid="{30EB6BB9-ED82-374A-B580-C38CF118DFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="99">
   <si>
     <t>Sheets</t>
   </si>
@@ -115,9 +115,6 @@
     <t>This sheet exists to provide a one-stop “raw export”; panels a–d use the corresponding curated sheets above.</t>
   </si>
   <si>
-    <t>provenance (minimal)</t>
-  </si>
-  <si>
     <t>Each row is one cohort × setting × τ point.</t>
   </si>
   <si>
@@ -154,15 +151,6 @@
     <t>・n_total, n_pass, n_abstain, n_fail</t>
   </si>
   <si>
-    <t>　・ours = Proposed (matched context)</t>
-  </si>
-  <si>
-    <t>　・context_swap / shuffled_context = Context swap</t>
-  </si>
-  <si>
-    <t>　・stress = Evidence dropout</t>
-  </si>
-  <si>
     <t>・Fig2a_points: PASS rate vs ABSTAIN rate across TCGA cohorts (panel a).</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
   </si>
   <si>
     <t>・Fig2d_abstain_reasons: ABSTAIN reason-code composition (HNSC; panel d).</t>
-  </si>
-  <si>
-    <t>・provenance: Minimal provenance pointers (benchmark_id, scripts, and source paths).</t>
   </si>
   <si>
     <t>・benchmark_id, condition (= HNSC), variant, tau</t>
@@ -200,18 +185,6 @@
   </si>
   <si>
     <t>・frac_within_abstain (= n_abstain_reason / n_abstain_total)</t>
-  </si>
-  <si>
-    <t>・benchmark_id → main pipeline id</t>
-  </si>
-  <si>
-    <t>・risk_coverage_source_path (the TSV location used)</t>
-  </si>
-  <si>
-    <t>・plot_scripts (script names only; avoid long command lines here)</t>
-  </si>
-  <si>
-    <t>・generated_on / git_rev (if you already record these)</t>
   </si>
   <si>
     <t>・Rates are stored as fractions (0–1). If plotted as percent, multiply by 100.</t>
@@ -354,12 +327,27 @@
   <si>
     <t>Proposed</t>
   </si>
+  <si>
+    <t>Required columns:</t>
+  </si>
+  <si>
+    <t>Variant mapping (paper-facing)</t>
+  </si>
+  <si>
+    <t>・ours = Proposed (matched context)</t>
+  </si>
+  <si>
+    <t>・context_swap / shuffled_context = Context swap</t>
+  </si>
+  <si>
+    <t>・stress = Evidence dropout</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,13 +376,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,9 +400,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -757,343 +738,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9673388-7D5D-2945-93B6-903C0FEE4E1B}">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A73" sqref="A69:A73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
+      <c r="A7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
+      <c r="A8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
+      <c r="A9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
+      <c r="A10" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
+      <c r="A15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
+      <c r="A18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
+      <c r="A23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
+      <c r="A27" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
+      <c r="A28" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" location="Fig2a_data!A1" display="・Fig2a_points: PASS rate vs ABSTAIN rate across TCGA cohorts (panel a)." xr:uid="{BE167DA7-5DEA-F14B-AD8B-A2872761F017}"/>
+    <hyperlink ref="A8" location="Fig2b_data!A1" display="・Fig2b_abstain_vs_tau: ABSTAIN rate across τ for HNSC (panel b)." xr:uid="{8B3BAE3E-E67A-0E4B-A556-776DB679F891}"/>
+    <hyperlink ref="A9" location="Fig2c_data!A1" display="・Fig2c_pass_vs_human_risk: PASS rate vs human non-accept risk (HNSC; panel c)." xr:uid="{294CC777-1F5E-214E-BFDC-6C957B425551}"/>
+    <hyperlink ref="A10" location="Fig2d_data!A1" display="・Fig2d_abstain_reasons: ABSTAIN reason-code composition (HNSC; panel d)." xr:uid="{47A86D76-D053-3D4C-981A-A376946E30AE}"/>
+    <hyperlink ref="A11" location="risk_coverage_full!A1" display="・risk_coverage_full: Full exported table used for plotting (risk_coverage.tsv; optional “complete view”)." xr:uid="{1E45B6CF-2341-3140-BF16-9380A8B7A8FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1102,50 +1066,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4DC0-2E6B-B145-B487-2C8D7E5393E7}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="A1:I106"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0.2</v>
@@ -1168,13 +1130,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -1197,13 +1159,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>0.6</v>
@@ -1226,13 +1188,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>0.8</v>
@@ -1255,13 +1217,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -1284,13 +1246,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -1313,13 +1275,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -1342,13 +1304,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0.6</v>
@@ -1371,13 +1333,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -1400,13 +1362,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -1429,13 +1391,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>0.2</v>
@@ -1458,13 +1420,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -1487,13 +1449,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>0.6</v>
@@ -1516,13 +1478,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0.8</v>
@@ -1545,13 +1507,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -1574,13 +1536,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -1603,13 +1565,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>0.4</v>
@@ -1632,13 +1594,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>0.6</v>
@@ -1661,13 +1623,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>0.8</v>
@@ -1690,13 +1652,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <v>0.9</v>
@@ -1719,13 +1681,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>0.2</v>
@@ -1748,13 +1710,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>0.4</v>
@@ -1777,13 +1739,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <v>0.6</v>
@@ -1806,13 +1768,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>0.8</v>
@@ -1835,13 +1797,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>0.9</v>
@@ -1864,13 +1826,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>0.2</v>
@@ -1893,13 +1855,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>0.4</v>
@@ -1922,13 +1884,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>0.6</v>
@@ -1951,13 +1913,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>0.8</v>
@@ -1980,13 +1942,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>0.9</v>
@@ -2009,13 +1971,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>0.2</v>
@@ -2038,13 +2000,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>0.4</v>
@@ -2067,13 +2029,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>0.6</v>
@@ -2096,13 +2058,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>0.8</v>
@@ -2125,13 +2087,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>0.9</v>
@@ -2154,13 +2116,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <v>0.2</v>
@@ -2183,13 +2145,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>0.4</v>
@@ -2212,13 +2174,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>0.6</v>
@@ -2241,13 +2203,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>0.8</v>
@@ -2270,13 +2232,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>0.9</v>
@@ -2299,13 +2261,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D42">
         <v>0.2</v>
@@ -2328,13 +2290,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>0.4</v>
@@ -2357,13 +2319,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D44">
         <v>0.6</v>
@@ -2386,13 +2348,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>0.8</v>
@@ -2415,13 +2377,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>0.9</v>
@@ -2444,13 +2406,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D47">
         <v>0.2</v>
@@ -2473,13 +2435,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D48">
         <v>0.4</v>
@@ -2502,13 +2464,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D49">
         <v>0.6</v>
@@ -2531,13 +2493,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>0.8</v>
@@ -2560,13 +2522,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D51">
         <v>0.9</v>
@@ -2589,13 +2551,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D52">
         <v>0.2</v>
@@ -2618,13 +2580,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <v>0.4</v>
@@ -2647,13 +2609,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>0.6</v>
@@ -2676,13 +2638,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D55">
         <v>0.8</v>
@@ -2705,13 +2667,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>0.9</v>
@@ -2734,13 +2696,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D57">
         <v>0.2</v>
@@ -2763,13 +2725,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D58">
         <v>0.4</v>
@@ -2792,13 +2754,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <v>0.6</v>
@@ -2821,13 +2783,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <v>0.8</v>
@@ -2850,13 +2812,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>0.9</v>
@@ -2879,13 +2841,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <v>0.2</v>
@@ -2908,13 +2870,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>0.4</v>
@@ -2937,13 +2899,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D64">
         <v>0.6</v>
@@ -2966,13 +2928,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>0.8</v>
@@ -2995,13 +2957,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
         <v>77</v>
       </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D66">
         <v>0.9</v>
@@ -3024,13 +2986,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D67">
         <v>0.2</v>
@@ -3053,13 +3015,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D68">
         <v>0.4</v>
@@ -3082,13 +3044,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>0.6</v>
@@ -3111,13 +3073,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D70">
         <v>0.8</v>
@@ -3140,13 +3102,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>0.9</v>
@@ -3169,13 +3131,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D72">
         <v>0.2</v>
@@ -3198,13 +3160,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>86</v>
-      </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D73">
         <v>0.4</v>
@@ -3227,13 +3189,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D74">
         <v>0.6</v>
@@ -3256,13 +3218,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
-        <v>86</v>
-      </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D75">
         <v>0.8</v>
@@ -3285,13 +3247,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D76">
         <v>0.9</v>
@@ -3314,13 +3276,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D77">
         <v>0.2</v>
@@ -3343,13 +3305,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D78">
         <v>0.4</v>
@@ -3372,13 +3334,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D79">
         <v>0.6</v>
@@ -3401,13 +3363,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D80">
         <v>0.8</v>
@@ -3430,13 +3392,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D81">
         <v>0.9</v>
@@ -3459,13 +3421,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D82">
         <v>0.2</v>
@@ -3488,13 +3450,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D83">
         <v>0.4</v>
@@ -3517,13 +3479,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D84">
         <v>0.6</v>
@@ -3546,13 +3508,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D85">
         <v>0.8</v>
@@ -3575,13 +3537,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D86">
         <v>0.9</v>
@@ -3604,13 +3566,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D87">
         <v>0.2</v>
@@ -3633,13 +3595,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D88">
         <v>0.4</v>
@@ -3662,13 +3624,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D89">
         <v>0.6</v>
@@ -3691,13 +3653,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D90">
         <v>0.8</v>
@@ -3720,13 +3682,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D91">
         <v>0.9</v>
@@ -3749,13 +3711,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D92">
         <v>0.2</v>
@@ -3778,13 +3740,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D93">
         <v>0.4</v>
@@ -3807,13 +3769,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D94">
         <v>0.6</v>
@@ -3836,13 +3798,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D95">
         <v>0.8</v>
@@ -3865,13 +3827,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D96">
         <v>0.9</v>
@@ -3894,13 +3856,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D97">
         <v>0.2</v>
@@ -3923,13 +3885,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D98">
         <v>0.4</v>
@@ -3952,13 +3914,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D99">
         <v>0.6</v>
@@ -3981,13 +3943,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D100">
         <v>0.8</v>
@@ -4010,13 +3972,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D101">
         <v>0.9</v>
@@ -4039,13 +4001,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D102">
         <v>0.2</v>
@@ -4068,13 +4030,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D103">
         <v>0.4</v>
@@ -4097,13 +4059,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D104">
         <v>0.6</v>
@@ -4126,13 +4088,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D105">
         <v>0.8</v>
@@ -4155,13 +4117,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D106">
         <v>0.9</v>
@@ -4203,42 +4165,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0.2</v>
@@ -4261,13 +4223,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -4290,13 +4252,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>0.6</v>
@@ -4319,13 +4281,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>0.8</v>
@@ -4348,13 +4310,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -4377,13 +4339,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -4406,13 +4368,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -4435,13 +4397,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0.6</v>
@@ -4464,13 +4426,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -4493,13 +4455,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -4522,13 +4484,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>0.2</v>
@@ -4551,13 +4513,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -4580,13 +4542,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>0.6</v>
@@ -4609,13 +4571,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0.8</v>
@@ -4638,13 +4600,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -4682,54 +4644,54 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0.2</v>
@@ -4764,13 +4726,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -4805,13 +4767,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>0.6</v>
@@ -4846,13 +4808,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>0.8</v>
@@ -4887,13 +4849,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -4928,13 +4890,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -4969,13 +4931,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -5010,13 +4972,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0.6</v>
@@ -5051,13 +5013,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -5092,13 +5054,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -5133,13 +5095,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>0.2</v>
@@ -5174,13 +5136,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -5215,13 +5177,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>0.6</v>
@@ -5256,13 +5218,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0.8</v>
@@ -5297,13 +5259,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -5346,142 +5308,142 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5.7142857142857099E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>0.91428571428571404</v>
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2.8571428571428501E-2</v>
+        <v>0.11111111111111099</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -5490,27 +5452,27 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -5527,19 +5489,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -5548,27 +5510,27 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -5577,97 +5539,97 @@
         <v>40</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>0.72727272727272696</v>
+        <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0.18181818181818099</v>
+        <v>0.15384615384615299</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>9.0909090909090898E-2</v>
+        <v>0.30769230769230699</v>
       </c>
     </row>
   </sheetData>
@@ -5679,86 +5641,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E60D12-1FDF-E140-945D-8437118D68CC}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0.2</v>
@@ -5799,19 +5759,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>0.4</v>
@@ -5852,19 +5812,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -5905,19 +5865,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>0.8</v>
@@ -5958,19 +5918,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>0.9</v>
@@ -6011,19 +5971,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -6064,19 +6024,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>0.4</v>
@@ -6117,19 +6077,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>0.6</v>
@@ -6170,19 +6130,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>0.8</v>
@@ -6223,19 +6183,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>0.9</v>
@@ -6276,19 +6236,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>0.2</v>
@@ -6329,19 +6289,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>0.4</v>
@@ -6382,19 +6342,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>0.6</v>
@@ -6435,19 +6395,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>0.8</v>
@@ -6488,19 +6448,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>0.9</v>
@@ -6541,19 +6501,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>0.2</v>
@@ -6594,19 +6554,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>0.4</v>
@@ -6647,19 +6607,19 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>0.6</v>
@@ -6700,19 +6660,19 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>0.8</v>
@@ -6753,19 +6713,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>0.9</v>
@@ -6806,19 +6766,19 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>0.2</v>
@@ -6859,19 +6819,19 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>0.4</v>
@@ -6912,19 +6872,19 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>0.6</v>
@@ -6965,19 +6925,19 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -7018,19 +6978,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <v>0.9</v>
@@ -7071,19 +7031,19 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>0.2</v>
@@ -7124,19 +7084,19 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>0.4</v>
@@ -7177,19 +7137,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>0.6</v>
@@ -7230,19 +7190,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>0.8</v>
@@ -7283,19 +7243,19 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>0.9</v>
@@ -7336,19 +7296,19 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>0.2</v>
@@ -7389,19 +7349,19 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>0.4</v>
@@ -7442,19 +7402,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>0.6</v>
@@ -7495,19 +7455,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <v>0.8</v>
@@ -7548,19 +7508,19 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F36">
         <v>0.9</v>
@@ -7601,19 +7561,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -7654,19 +7614,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>0.4</v>
@@ -7707,19 +7667,19 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F39">
         <v>0.6</v>
@@ -7760,19 +7720,19 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>0.8</v>
@@ -7813,19 +7773,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>0.9</v>
@@ -7866,19 +7826,19 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F42">
         <v>0.2</v>
@@ -7919,19 +7879,19 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>0.4</v>
@@ -7972,19 +7932,19 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>0.6</v>
@@ -8025,19 +7985,19 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <v>0.8</v>
@@ -8078,19 +8038,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>0.9</v>
@@ -8131,19 +8091,19 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F47">
         <v>0.2</v>
@@ -8184,19 +8144,19 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>0.4</v>
@@ -8237,19 +8197,19 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F49">
         <v>0.6</v>
@@ -8290,19 +8250,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F50">
         <v>0.8</v>
@@ -8343,19 +8303,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F51">
         <v>0.9</v>
@@ -8396,19 +8356,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F52">
         <v>0.2</v>
@@ -8449,19 +8409,19 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>0.4</v>
@@ -8502,19 +8462,19 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F54">
         <v>0.6</v>
@@ -8555,19 +8515,19 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F55">
         <v>0.8</v>
@@ -8608,19 +8568,19 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F56">
         <v>0.9</v>
@@ -8661,19 +8621,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>0.2</v>
@@ -8714,19 +8674,19 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F58">
         <v>0.4</v>
@@ -8767,19 +8727,19 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>0.6</v>
@@ -8820,19 +8780,19 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>0.8</v>
@@ -8873,19 +8833,19 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F61">
         <v>0.9</v>
@@ -8926,19 +8886,19 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F62">
         <v>0.2</v>
@@ -8979,19 +8939,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F63">
         <v>0.4</v>
@@ -9032,19 +8992,19 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F64">
         <v>0.6</v>
@@ -9085,19 +9045,19 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F65">
         <v>0.8</v>
@@ -9138,19 +9098,19 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
         <v>77</v>
       </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <v>0.9</v>
@@ -9191,19 +9151,19 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F67">
         <v>0.2</v>
@@ -9244,19 +9204,19 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F68">
         <v>0.4</v>
@@ -9297,19 +9257,19 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F69">
         <v>0.6</v>
@@ -9350,19 +9310,19 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F70">
         <v>0.8</v>
@@ -9403,19 +9363,19 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F71">
         <v>0.9</v>
@@ -9456,19 +9416,19 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F72">
         <v>0.2</v>
@@ -9509,19 +9469,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>86</v>
-      </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F73">
         <v>0.4</v>
@@ -9562,19 +9522,19 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F74">
         <v>0.6</v>
@@ -9615,19 +9575,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
-        <v>86</v>
-      </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F75">
         <v>0.8</v>
@@ -9668,19 +9628,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F76">
         <v>0.9</v>
@@ -9721,19 +9681,19 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F77">
         <v>0.2</v>
@@ -9774,19 +9734,19 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F78">
         <v>0.4</v>
@@ -9827,19 +9787,19 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F79">
         <v>0.6</v>
@@ -9880,19 +9840,19 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F80">
         <v>0.8</v>
@@ -9933,19 +9893,19 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F81">
         <v>0.9</v>
@@ -9986,19 +9946,19 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <v>0.2</v>
@@ -10039,19 +9999,19 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F83">
         <v>0.4</v>
@@ -10092,19 +10052,19 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F84">
         <v>0.6</v>
@@ -10145,19 +10105,19 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F85">
         <v>0.8</v>
@@ -10198,19 +10158,19 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F86">
         <v>0.9</v>
@@ -10251,19 +10211,19 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F87">
         <v>0.2</v>
@@ -10304,19 +10264,19 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F88">
         <v>0.4</v>
@@ -10357,19 +10317,19 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F89">
         <v>0.6</v>
@@ -10410,19 +10370,19 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F90">
         <v>0.8</v>
@@ -10463,19 +10423,19 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F91">
         <v>0.9</v>
@@ -10516,19 +10476,19 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F92">
         <v>0.2</v>
@@ -10569,19 +10529,19 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F93">
         <v>0.4</v>
@@ -10622,19 +10582,19 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F94">
         <v>0.6</v>
@@ -10675,19 +10635,19 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F95">
         <v>0.8</v>
@@ -10728,19 +10688,19 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F96">
         <v>0.9</v>
@@ -10781,19 +10741,19 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F97">
         <v>0.2</v>
@@ -10834,19 +10794,19 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F98">
         <v>0.4</v>
@@ -10887,19 +10847,19 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F99">
         <v>0.6</v>
@@ -10940,19 +10900,19 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F100">
         <v>0.8</v>
@@ -10993,19 +10953,19 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F101">
         <v>0.9</v>
@@ -11046,19 +11006,19 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F102">
         <v>0.2</v>
@@ -11099,19 +11059,19 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F103">
         <v>0.4</v>
@@ -11152,19 +11112,19 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F104">
         <v>0.6</v>
@@ -11205,19 +11165,19 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F105">
         <v>0.8</v>
@@ -11258,19 +11218,19 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F106">
         <v>0.9</v>
